--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -503,17 +503,17 @@
           <t>CHI</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>BAL</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>SF</t>
         </is>
@@ -523,12 +523,12 @@
           <t>LAC</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>DET</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>PIT</t>
         </is>
@@ -787,35 +787,25 @@
           <t>0</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
